--- a/Groceryapp/src/test/resources/TestData/DataSheet.xlsx
+++ b/Groceryapp/src/test/resources/TestData/DataSheet.xlsx
@@ -57,7 +57,7 @@
     <t xml:space="preserve">testmanagefooter@gamil.com</t>
   </si>
   <si>
-    <t xml:space="preserve">AA_obsquraUser</t>
+    <t xml:space="preserve">AA_obsquraUser12</t>
   </si>
   <si>
     <t xml:space="preserve">user123</t>
@@ -182,7 +182,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -246,7 +246,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="11.52"/>
   </cols>
@@ -258,7 +258,7 @@
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -269,7 +269,7 @@
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>5372992189</v>
       </c>
     </row>
@@ -295,10 +295,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
   </cols>
@@ -307,7 +307,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -315,7 +315,7 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Groceryapp/src/test/resources/TestData/DataSheet.xlsx
+++ b/Groceryapp/src/test/resources/TestData/DataSheet.xlsx
@@ -57,7 +57,7 @@
     <t xml:space="preserve">testmanagefooter@gamil.com</t>
   </si>
   <si>
-    <t xml:space="preserve">AA_obsquraUser12</t>
+    <t xml:space="preserve">AA_obsquraUser</t>
   </si>
   <si>
     <t xml:space="preserve">user123</t>
@@ -182,7 +182,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -246,7 +246,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="11.52"/>
   </cols>
@@ -298,7 +298,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
   </cols>
